--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_167.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_167.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33043-d2091199-Reviews-Courtyard_Santa_Ana_Orange_County-Santa_Ana_California.html</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>314</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Courtyard-By-Marriott-Santa-Ana-Orange-County.h4278264.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_167.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_167.xlsx
@@ -4718,7 +4718,7 @@
     <t>I spent a night here while on business in Santa Ana, CA.Parking was $8, which was about the only thing that was unfortunate about the hotel.The staff were friendly, and the lobby is very nice and modern. They have a cafe/bistro which was quite modern and attractive, although I didn't eat anything it looked like a great convenience and a somewhat more reasonable choice than the typical overpriced hotel restaurant.The elevator did creak and vibrate which was unusual, given how new and modern all the rest of the facility appeared.The room was very attractive, very modern in style, and was furnished with some artwork and knicknacks that were a step above most hotels in this class. The bathroom was attractive and modern. The bed and pillows had crisp white sheets and were extremely comfortable. The free wireless internet worked well and had good solid bandwidth.All in all, nothing to really complain about. The hotel is in an industrial/business type area, so I don't know if there are any restaurants nearby other than the one in the hotel. But a very nice hotel and a good value.More</t>
   </si>
   <si>
-    <t>Naptown2</t>
+    <t>Bob N</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33043-d2091199-r127253602-Courtyard_Santa_Ana_Orange_County-Santa_Ana_California.html</t>
@@ -5586,7 +5586,7 @@
         <v>61434</v>
       </c>
       <c r="B2" t="n">
-        <v>133351</v>
+        <v>164180</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -5716,7 +5716,7 @@
         <v>61434</v>
       </c>
       <c r="B4" t="n">
-        <v>133352</v>
+        <v>164181</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -5781,7 +5781,7 @@
         <v>61434</v>
       </c>
       <c r="B5" t="n">
-        <v>133353</v>
+        <v>164182</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -5850,7 +5850,7 @@
         <v>61434</v>
       </c>
       <c r="B6" t="n">
-        <v>133354</v>
+        <v>164183</v>
       </c>
       <c r="C6" t="s">
         <v>88</v>
@@ -5919,7 +5919,7 @@
         <v>61434</v>
       </c>
       <c r="B7" t="n">
-        <v>133355</v>
+        <v>164184</v>
       </c>
       <c r="C7" t="s">
         <v>99</v>
@@ -6059,7 +6059,7 @@
         <v>61434</v>
       </c>
       <c r="B9" t="n">
-        <v>133356</v>
+        <v>164185</v>
       </c>
       <c r="C9" t="s">
         <v>118</v>
@@ -6124,7 +6124,7 @@
         <v>61434</v>
       </c>
       <c r="B10" t="n">
-        <v>133357</v>
+        <v>164186</v>
       </c>
       <c r="C10" t="s">
         <v>128</v>
@@ -6331,7 +6331,7 @@
         <v>61434</v>
       </c>
       <c r="B13" t="n">
-        <v>133358</v>
+        <v>164187</v>
       </c>
       <c r="C13" t="s">
         <v>156</v>
@@ -6396,7 +6396,7 @@
         <v>61434</v>
       </c>
       <c r="B14" t="n">
-        <v>133359</v>
+        <v>164188</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -6597,7 +6597,7 @@
         <v>61434</v>
       </c>
       <c r="B17" t="n">
-        <v>133360</v>
+        <v>164189</v>
       </c>
       <c r="C17" t="s">
         <v>194</v>
@@ -6668,7 +6668,7 @@
         <v>61434</v>
       </c>
       <c r="B18" t="n">
-        <v>133361</v>
+        <v>164190</v>
       </c>
       <c r="C18" t="s">
         <v>204</v>
@@ -6806,7 +6806,7 @@
         <v>61434</v>
       </c>
       <c r="B20" t="n">
-        <v>133362</v>
+        <v>164191</v>
       </c>
       <c r="C20" t="s">
         <v>223</v>
@@ -6871,7 +6871,7 @@
         <v>61434</v>
       </c>
       <c r="B21" t="n">
-        <v>133363</v>
+        <v>164192</v>
       </c>
       <c r="C21" t="s">
         <v>232</v>
@@ -7009,7 +7009,7 @@
         <v>61434</v>
       </c>
       <c r="B23" t="n">
-        <v>133364</v>
+        <v>164193</v>
       </c>
       <c r="C23" t="s">
         <v>249</v>
@@ -7080,7 +7080,7 @@
         <v>61434</v>
       </c>
       <c r="B24" t="n">
-        <v>133365</v>
+        <v>164194</v>
       </c>
       <c r="C24" t="s">
         <v>258</v>
@@ -7151,7 +7151,7 @@
         <v>61434</v>
       </c>
       <c r="B25" t="n">
-        <v>133366</v>
+        <v>164195</v>
       </c>
       <c r="C25" t="s">
         <v>268</v>
@@ -7220,7 +7220,7 @@
         <v>61434</v>
       </c>
       <c r="B26" t="n">
-        <v>133367</v>
+        <v>164196</v>
       </c>
       <c r="C26" t="s">
         <v>277</v>
@@ -7291,7 +7291,7 @@
         <v>61434</v>
       </c>
       <c r="B27" t="n">
-        <v>133368</v>
+        <v>164197</v>
       </c>
       <c r="C27" t="s">
         <v>287</v>
@@ -7362,7 +7362,7 @@
         <v>61434</v>
       </c>
       <c r="B28" t="n">
-        <v>133369</v>
+        <v>164198</v>
       </c>
       <c r="C28" t="s">
         <v>296</v>
@@ -7433,7 +7433,7 @@
         <v>61434</v>
       </c>
       <c r="B29" t="n">
-        <v>133370</v>
+        <v>164199</v>
       </c>
       <c r="C29" t="s">
         <v>303</v>
@@ -7563,7 +7563,7 @@
         <v>61434</v>
       </c>
       <c r="B31" t="n">
-        <v>133371</v>
+        <v>164200</v>
       </c>
       <c r="C31" t="s">
         <v>322</v>
@@ -7632,7 +7632,7 @@
         <v>61434</v>
       </c>
       <c r="B32" t="n">
-        <v>133372</v>
+        <v>164201</v>
       </c>
       <c r="C32" t="s">
         <v>331</v>
@@ -7703,7 +7703,7 @@
         <v>61434</v>
       </c>
       <c r="B33" t="n">
-        <v>133373</v>
+        <v>164202</v>
       </c>
       <c r="C33" t="s">
         <v>341</v>
@@ -7774,7 +7774,7 @@
         <v>61434</v>
       </c>
       <c r="B34" t="n">
-        <v>133374</v>
+        <v>164203</v>
       </c>
       <c r="C34" t="s">
         <v>350</v>
@@ -7845,7 +7845,7 @@
         <v>61434</v>
       </c>
       <c r="B35" t="n">
-        <v>133375</v>
+        <v>164204</v>
       </c>
       <c r="C35" t="s">
         <v>359</v>
@@ -8048,7 +8048,7 @@
         <v>61434</v>
       </c>
       <c r="B38" t="n">
-        <v>133376</v>
+        <v>164205</v>
       </c>
       <c r="C38" t="s">
         <v>384</v>
@@ -8117,7 +8117,7 @@
         <v>61434</v>
       </c>
       <c r="B39" t="n">
-        <v>133377</v>
+        <v>164206</v>
       </c>
       <c r="C39" t="s">
         <v>394</v>
@@ -8318,7 +8318,7 @@
         <v>61434</v>
       </c>
       <c r="B42" t="n">
-        <v>133378</v>
+        <v>164207</v>
       </c>
       <c r="C42" t="s">
         <v>417</v>
@@ -8389,7 +8389,7 @@
         <v>61434</v>
       </c>
       <c r="B43" t="n">
-        <v>133379</v>
+        <v>164208</v>
       </c>
       <c r="C43" t="s">
         <v>424</v>
@@ -8454,7 +8454,7 @@
         <v>61434</v>
       </c>
       <c r="B44" t="n">
-        <v>133380</v>
+        <v>164209</v>
       </c>
       <c r="C44" t="s">
         <v>433</v>
@@ -8519,7 +8519,7 @@
         <v>61434</v>
       </c>
       <c r="B45" t="n">
-        <v>133381</v>
+        <v>164210</v>
       </c>
       <c r="C45" t="s">
         <v>442</v>
@@ -8584,7 +8584,7 @@
         <v>61434</v>
       </c>
       <c r="B46" t="n">
-        <v>133382</v>
+        <v>164211</v>
       </c>
       <c r="C46" t="s">
         <v>450</v>
@@ -8720,7 +8720,7 @@
         <v>61434</v>
       </c>
       <c r="B48" t="n">
-        <v>133383</v>
+        <v>164212</v>
       </c>
       <c r="C48" t="s">
         <v>467</v>
@@ -8789,7 +8789,7 @@
         <v>61434</v>
       </c>
       <c r="B49" t="n">
-        <v>133384</v>
+        <v>164213</v>
       </c>
       <c r="C49" t="s">
         <v>476</v>
@@ -8919,7 +8919,7 @@
         <v>61434</v>
       </c>
       <c r="B51" t="n">
-        <v>133385</v>
+        <v>164214</v>
       </c>
       <c r="C51" t="s">
         <v>495</v>
@@ -8988,7 +8988,7 @@
         <v>61434</v>
       </c>
       <c r="B52" t="n">
-        <v>133386</v>
+        <v>164215</v>
       </c>
       <c r="C52" t="s">
         <v>504</v>
@@ -9057,7 +9057,7 @@
         <v>61434</v>
       </c>
       <c r="B53" t="n">
-        <v>133387</v>
+        <v>164216</v>
       </c>
       <c r="C53" t="s">
         <v>513</v>
@@ -9126,7 +9126,7 @@
         <v>61434</v>
       </c>
       <c r="B54" t="n">
-        <v>133388</v>
+        <v>164217</v>
       </c>
       <c r="C54" t="s">
         <v>523</v>
@@ -9191,7 +9191,7 @@
         <v>61434</v>
       </c>
       <c r="B55" t="n">
-        <v>133389</v>
+        <v>164218</v>
       </c>
       <c r="C55" t="s">
         <v>532</v>
@@ -9262,7 +9262,7 @@
         <v>61434</v>
       </c>
       <c r="B56" t="n">
-        <v>133390</v>
+        <v>164219</v>
       </c>
       <c r="C56" t="s">
         <v>542</v>
@@ -9331,7 +9331,7 @@
         <v>61434</v>
       </c>
       <c r="B57" t="n">
-        <v>133391</v>
+        <v>164220</v>
       </c>
       <c r="C57" t="s">
         <v>552</v>
@@ -9400,7 +9400,7 @@
         <v>61434</v>
       </c>
       <c r="B58" t="n">
-        <v>133392</v>
+        <v>164221</v>
       </c>
       <c r="C58" t="s">
         <v>562</v>
@@ -9465,7 +9465,7 @@
         <v>61434</v>
       </c>
       <c r="B59" t="n">
-        <v>133393</v>
+        <v>164222</v>
       </c>
       <c r="C59" t="s">
         <v>572</v>
@@ -9530,7 +9530,7 @@
         <v>61434</v>
       </c>
       <c r="B60" t="n">
-        <v>133394</v>
+        <v>164223</v>
       </c>
       <c r="C60" t="s">
         <v>581</v>
@@ -9599,7 +9599,7 @@
         <v>61434</v>
       </c>
       <c r="B61" t="n">
-        <v>133395</v>
+        <v>164224</v>
       </c>
       <c r="C61" t="s">
         <v>590</v>
@@ -9664,7 +9664,7 @@
         <v>61434</v>
       </c>
       <c r="B62" t="n">
-        <v>133396</v>
+        <v>164225</v>
       </c>
       <c r="C62" t="s">
         <v>599</v>
@@ -9804,7 +9804,7 @@
         <v>61434</v>
       </c>
       <c r="B64" t="n">
-        <v>133397</v>
+        <v>164226</v>
       </c>
       <c r="C64" t="s">
         <v>619</v>
@@ -9875,7 +9875,7 @@
         <v>61434</v>
       </c>
       <c r="B65" t="n">
-        <v>133398</v>
+        <v>164227</v>
       </c>
       <c r="C65" t="s">
         <v>629</v>
@@ -9946,7 +9946,7 @@
         <v>61434</v>
       </c>
       <c r="B66" t="n">
-        <v>133399</v>
+        <v>164228</v>
       </c>
       <c r="C66" t="s">
         <v>638</v>
@@ -10017,7 +10017,7 @@
         <v>61434</v>
       </c>
       <c r="B67" t="n">
-        <v>133400</v>
+        <v>164229</v>
       </c>
       <c r="C67" t="s">
         <v>647</v>
@@ -10088,7 +10088,7 @@
         <v>61434</v>
       </c>
       <c r="B68" t="n">
-        <v>133401</v>
+        <v>164230</v>
       </c>
       <c r="C68" t="s">
         <v>657</v>
@@ -10159,7 +10159,7 @@
         <v>61434</v>
       </c>
       <c r="B69" t="n">
-        <v>133402</v>
+        <v>164231</v>
       </c>
       <c r="C69" t="s">
         <v>667</v>
@@ -10228,7 +10228,7 @@
         <v>61434</v>
       </c>
       <c r="B70" t="n">
-        <v>133403</v>
+        <v>164232</v>
       </c>
       <c r="C70" t="s">
         <v>677</v>
@@ -10293,7 +10293,7 @@
         <v>61434</v>
       </c>
       <c r="B71" t="n">
-        <v>133404</v>
+        <v>164233</v>
       </c>
       <c r="C71" t="s">
         <v>686</v>
@@ -10364,7 +10364,7 @@
         <v>61434</v>
       </c>
       <c r="B72" t="n">
-        <v>133405</v>
+        <v>164234</v>
       </c>
       <c r="C72" t="s">
         <v>696</v>
@@ -10429,7 +10429,7 @@
         <v>61434</v>
       </c>
       <c r="B73" t="n">
-        <v>133406</v>
+        <v>164235</v>
       </c>
       <c r="C73" t="s">
         <v>705</v>
@@ -10494,7 +10494,7 @@
         <v>61434</v>
       </c>
       <c r="B74" t="n">
-        <v>133407</v>
+        <v>164236</v>
       </c>
       <c r="C74" t="s">
         <v>714</v>
@@ -10555,7 +10555,7 @@
         <v>61434</v>
       </c>
       <c r="B75" t="n">
-        <v>133408</v>
+        <v>164237</v>
       </c>
       <c r="C75" t="s">
         <v>723</v>
@@ -10626,7 +10626,7 @@
         <v>61434</v>
       </c>
       <c r="B76" t="n">
-        <v>133409</v>
+        <v>164238</v>
       </c>
       <c r="C76" t="s">
         <v>733</v>
@@ -10827,7 +10827,7 @@
         <v>61434</v>
       </c>
       <c r="B79" t="n">
-        <v>133410</v>
+        <v>164239</v>
       </c>
       <c r="C79" t="s">
         <v>761</v>
@@ -10896,7 +10896,7 @@
         <v>61434</v>
       </c>
       <c r="B80" t="n">
-        <v>133411</v>
+        <v>164240</v>
       </c>
       <c r="C80" t="s">
         <v>771</v>
@@ -11178,7 +11178,7 @@
         <v>61434</v>
       </c>
       <c r="B84" t="n">
-        <v>133412</v>
+        <v>164241</v>
       </c>
       <c r="C84" t="s">
         <v>808</v>
@@ -11247,7 +11247,7 @@
         <v>61434</v>
       </c>
       <c r="B85" t="n">
-        <v>133413</v>
+        <v>164242</v>
       </c>
       <c r="C85" t="s">
         <v>815</v>
@@ -11318,7 +11318,7 @@
         <v>61434</v>
       </c>
       <c r="B86" t="n">
-        <v>133414</v>
+        <v>164243</v>
       </c>
       <c r="C86" t="s">
         <v>822</v>
@@ -11452,7 +11452,7 @@
         <v>61434</v>
       </c>
       <c r="B88" t="n">
-        <v>133415</v>
+        <v>164244</v>
       </c>
       <c r="C88" t="s">
         <v>841</v>
@@ -11582,7 +11582,7 @@
         <v>61434</v>
       </c>
       <c r="B90" t="n">
-        <v>133416</v>
+        <v>164245</v>
       </c>
       <c r="C90" t="s">
         <v>858</v>
@@ -11643,7 +11643,7 @@
         <v>61434</v>
       </c>
       <c r="B91" t="n">
-        <v>133417</v>
+        <v>164246</v>
       </c>
       <c r="C91" t="s">
         <v>867</v>
@@ -11708,7 +11708,7 @@
         <v>61434</v>
       </c>
       <c r="B92" t="n">
-        <v>133418</v>
+        <v>164247</v>
       </c>
       <c r="C92" t="s">
         <v>876</v>
@@ -11773,7 +11773,7 @@
         <v>61434</v>
       </c>
       <c r="B93" t="n">
-        <v>133419</v>
+        <v>164248</v>
       </c>
       <c r="C93" t="s">
         <v>885</v>
@@ -11842,7 +11842,7 @@
         <v>61434</v>
       </c>
       <c r="B94" t="n">
-        <v>133420</v>
+        <v>164249</v>
       </c>
       <c r="C94" t="s">
         <v>891</v>
@@ -11909,7 +11909,7 @@
         <v>61434</v>
       </c>
       <c r="B95" t="n">
-        <v>133421</v>
+        <v>164250</v>
       </c>
       <c r="C95" t="s">
         <v>900</v>
@@ -12122,7 +12122,7 @@
         <v>61434</v>
       </c>
       <c r="B98" t="n">
-        <v>133422</v>
+        <v>164251</v>
       </c>
       <c r="C98" t="s">
         <v>929</v>
@@ -12191,7 +12191,7 @@
         <v>61434</v>
       </c>
       <c r="B99" t="n">
-        <v>133423</v>
+        <v>164252</v>
       </c>
       <c r="C99" t="s">
         <v>939</v>
@@ -12262,7 +12262,7 @@
         <v>61434</v>
       </c>
       <c r="B100" t="n">
-        <v>133424</v>
+        <v>164253</v>
       </c>
       <c r="C100" t="s">
         <v>946</v>
@@ -12333,7 +12333,7 @@
         <v>61434</v>
       </c>
       <c r="B101" t="n">
-        <v>133425</v>
+        <v>164254</v>
       </c>
       <c r="C101" t="s">
         <v>954</v>
@@ -12404,7 +12404,7 @@
         <v>61434</v>
       </c>
       <c r="B102" t="n">
-        <v>133426</v>
+        <v>164255</v>
       </c>
       <c r="C102" t="s">
         <v>963</v>
@@ -12475,7 +12475,7 @@
         <v>61434</v>
       </c>
       <c r="B103" t="n">
-        <v>133427</v>
+        <v>164256</v>
       </c>
       <c r="C103" t="s">
         <v>970</v>
@@ -12546,7 +12546,7 @@
         <v>61434</v>
       </c>
       <c r="B104" t="n">
-        <v>133428</v>
+        <v>164257</v>
       </c>
       <c r="C104" t="s">
         <v>979</v>
@@ -12615,7 +12615,7 @@
         <v>61434</v>
       </c>
       <c r="B105" t="n">
-        <v>133429</v>
+        <v>164258</v>
       </c>
       <c r="C105" t="s">
         <v>989</v>
@@ -12684,7 +12684,7 @@
         <v>61434</v>
       </c>
       <c r="B106" t="n">
-        <v>133430</v>
+        <v>164259</v>
       </c>
       <c r="C106" t="s">
         <v>999</v>
@@ -12749,7 +12749,7 @@
         <v>61434</v>
       </c>
       <c r="B107" t="n">
-        <v>133431</v>
+        <v>164260</v>
       </c>
       <c r="C107" t="s">
         <v>1009</v>
@@ -12814,7 +12814,7 @@
         <v>61434</v>
       </c>
       <c r="B108" t="n">
-        <v>133432</v>
+        <v>164261</v>
       </c>
       <c r="C108" t="s">
         <v>1018</v>
@@ -12885,7 +12885,7 @@
         <v>61434</v>
       </c>
       <c r="B109" t="n">
-        <v>133433</v>
+        <v>164262</v>
       </c>
       <c r="C109" t="s">
         <v>1026</v>
@@ -12956,7 +12956,7 @@
         <v>61434</v>
       </c>
       <c r="B110" t="n">
-        <v>133434</v>
+        <v>164263</v>
       </c>
       <c r="C110" t="s">
         <v>1033</v>
@@ -13027,7 +13027,7 @@
         <v>61434</v>
       </c>
       <c r="B111" t="n">
-        <v>133435</v>
+        <v>164264</v>
       </c>
       <c r="C111" t="s">
         <v>1043</v>
@@ -13232,7 +13232,7 @@
         <v>61434</v>
       </c>
       <c r="B114" t="n">
-        <v>133436</v>
+        <v>164265</v>
       </c>
       <c r="C114" t="s">
         <v>1066</v>
@@ -13307,7 +13307,7 @@
         <v>61434</v>
       </c>
       <c r="B115" t="n">
-        <v>133437</v>
+        <v>164266</v>
       </c>
       <c r="C115" t="s">
         <v>1075</v>
@@ -13382,7 +13382,7 @@
         <v>61434</v>
       </c>
       <c r="B116" t="n">
-        <v>133438</v>
+        <v>164267</v>
       </c>
       <c r="C116" t="s">
         <v>1082</v>
@@ -13457,7 +13457,7 @@
         <v>61434</v>
       </c>
       <c r="B117" t="n">
-        <v>133439</v>
+        <v>164268</v>
       </c>
       <c r="C117" t="s">
         <v>1089</v>
@@ -13532,7 +13532,7 @@
         <v>61434</v>
       </c>
       <c r="B118" t="n">
-        <v>133440</v>
+        <v>164269</v>
       </c>
       <c r="C118" t="s">
         <v>1099</v>
@@ -13832,7 +13832,7 @@
         <v>61434</v>
       </c>
       <c r="B122" t="n">
-        <v>133441</v>
+        <v>164270</v>
       </c>
       <c r="C122" t="s">
         <v>1133</v>
@@ -13907,7 +13907,7 @@
         <v>61434</v>
       </c>
       <c r="B123" t="n">
-        <v>133442</v>
+        <v>164271</v>
       </c>
       <c r="C123" t="s">
         <v>1143</v>
@@ -13982,7 +13982,7 @@
         <v>61434</v>
       </c>
       <c r="B124" t="n">
-        <v>133443</v>
+        <v>164272</v>
       </c>
       <c r="C124" t="s">
         <v>1149</v>
@@ -14057,7 +14057,7 @@
         <v>61434</v>
       </c>
       <c r="B125" t="n">
-        <v>133444</v>
+        <v>164273</v>
       </c>
       <c r="C125" t="s">
         <v>1159</v>
@@ -14132,7 +14132,7 @@
         <v>61434</v>
       </c>
       <c r="B126" t="n">
-        <v>133445</v>
+        <v>164274</v>
       </c>
       <c r="C126" t="s">
         <v>1169</v>
@@ -14262,7 +14262,7 @@
         <v>61434</v>
       </c>
       <c r="B128" t="n">
-        <v>133446</v>
+        <v>164275</v>
       </c>
       <c r="C128" t="s">
         <v>1185</v>
@@ -14487,7 +14487,7 @@
         <v>61434</v>
       </c>
       <c r="B131" t="n">
-        <v>133447</v>
+        <v>164276</v>
       </c>
       <c r="C131" t="s">
         <v>1210</v>
@@ -14556,7 +14556,7 @@
         <v>61434</v>
       </c>
       <c r="B132" t="n">
-        <v>133448</v>
+        <v>164277</v>
       </c>
       <c r="C132" t="s">
         <v>1219</v>
@@ -14627,7 +14627,7 @@
         <v>61434</v>
       </c>
       <c r="B133" t="n">
-        <v>133449</v>
+        <v>164278</v>
       </c>
       <c r="C133" t="s">
         <v>1226</v>
@@ -14702,7 +14702,7 @@
         <v>61434</v>
       </c>
       <c r="B134" t="n">
-        <v>133450</v>
+        <v>164279</v>
       </c>
       <c r="C134" t="s">
         <v>1234</v>
@@ -14773,7 +14773,7 @@
         <v>61434</v>
       </c>
       <c r="B135" t="n">
-        <v>133451</v>
+        <v>164280</v>
       </c>
       <c r="C135" t="s">
         <v>1243</v>
@@ -14919,7 +14919,7 @@
         <v>61434</v>
       </c>
       <c r="B137" t="n">
-        <v>133452</v>
+        <v>164281</v>
       </c>
       <c r="C137" t="s">
         <v>1261</v>
@@ -14990,7 +14990,7 @@
         <v>61434</v>
       </c>
       <c r="B138" t="n">
-        <v>133453</v>
+        <v>164282</v>
       </c>
       <c r="C138" t="s">
         <v>1270</v>
@@ -15065,7 +15065,7 @@
         <v>61434</v>
       </c>
       <c r="B139" t="n">
-        <v>133454</v>
+        <v>164283</v>
       </c>
       <c r="C139" t="s">
         <v>1280</v>
@@ -15138,7 +15138,7 @@
         <v>61434</v>
       </c>
       <c r="B140" t="n">
-        <v>133455</v>
+        <v>164284</v>
       </c>
       <c r="C140" t="s">
         <v>1287</v>
@@ -15213,7 +15213,7 @@
         <v>61434</v>
       </c>
       <c r="B141" t="n">
-        <v>133456</v>
+        <v>164285</v>
       </c>
       <c r="C141" t="s">
         <v>1297</v>
@@ -15355,7 +15355,7 @@
         <v>61434</v>
       </c>
       <c r="B143" t="n">
-        <v>133457</v>
+        <v>164286</v>
       </c>
       <c r="C143" t="s">
         <v>1315</v>
@@ -15430,7 +15430,7 @@
         <v>61434</v>
       </c>
       <c r="B144" t="n">
-        <v>133458</v>
+        <v>164287</v>
       </c>
       <c r="C144" t="s">
         <v>1325</v>
@@ -15578,7 +15578,7 @@
         <v>61434</v>
       </c>
       <c r="B146" t="n">
-        <v>133459</v>
+        <v>147027</v>
       </c>
       <c r="C146" t="s">
         <v>1342</v>
@@ -15653,7 +15653,7 @@
         <v>61434</v>
       </c>
       <c r="B147" t="n">
-        <v>133460</v>
+        <v>164288</v>
       </c>
       <c r="C147" t="s">
         <v>1351</v>
@@ -15728,7 +15728,7 @@
         <v>61434</v>
       </c>
       <c r="B148" t="n">
-        <v>133461</v>
+        <v>164289</v>
       </c>
       <c r="C148" t="s">
         <v>1360</v>
@@ -15803,7 +15803,7 @@
         <v>61434</v>
       </c>
       <c r="B149" t="n">
-        <v>133462</v>
+        <v>164290</v>
       </c>
       <c r="C149" t="s">
         <v>1370</v>
@@ -15949,7 +15949,7 @@
         <v>61434</v>
       </c>
       <c r="B151" t="n">
-        <v>133463</v>
+        <v>164291</v>
       </c>
       <c r="C151" t="s">
         <v>1387</v>
@@ -16024,7 +16024,7 @@
         <v>61434</v>
       </c>
       <c r="B152" t="n">
-        <v>133464</v>
+        <v>164292</v>
       </c>
       <c r="C152" t="s">
         <v>1397</v>
@@ -16095,7 +16095,7 @@
         <v>61434</v>
       </c>
       <c r="B153" t="n">
-        <v>133465</v>
+        <v>164293</v>
       </c>
       <c r="C153" t="s">
         <v>1405</v>
@@ -16166,7 +16166,7 @@
         <v>61434</v>
       </c>
       <c r="B154" t="n">
-        <v>133466</v>
+        <v>164294</v>
       </c>
       <c r="C154" t="s">
         <v>1413</v>
@@ -16241,7 +16241,7 @@
         <v>61434</v>
       </c>
       <c r="B155" t="n">
-        <v>133467</v>
+        <v>133396</v>
       </c>
       <c r="C155" t="s">
         <v>1422</v>
@@ -16383,7 +16383,7 @@
         <v>61434</v>
       </c>
       <c r="B157" t="n">
-        <v>133468</v>
+        <v>164295</v>
       </c>
       <c r="C157" t="s">
         <v>1436</v>
@@ -16458,7 +16458,7 @@
         <v>61434</v>
       </c>
       <c r="B158" t="n">
-        <v>133469</v>
+        <v>164296</v>
       </c>
       <c r="C158" t="s">
         <v>1446</v>
@@ -16594,7 +16594,7 @@
         <v>61434</v>
       </c>
       <c r="B160" t="n">
-        <v>133470</v>
+        <v>164297</v>
       </c>
       <c r="C160" t="s">
         <v>1463</v>
@@ -16669,7 +16669,7 @@
         <v>61434</v>
       </c>
       <c r="B161" t="n">
-        <v>133471</v>
+        <v>164298</v>
       </c>
       <c r="C161" t="s">
         <v>1473</v>
@@ -16965,7 +16965,7 @@
         <v>61434</v>
       </c>
       <c r="B165" t="n">
-        <v>133472</v>
+        <v>164299</v>
       </c>
       <c r="C165" t="s">
         <v>1506</v>
@@ -17040,7 +17040,7 @@
         <v>61434</v>
       </c>
       <c r="B166" t="n">
-        <v>133473</v>
+        <v>164300</v>
       </c>
       <c r="C166" t="s">
         <v>1513</v>
@@ -17115,7 +17115,7 @@
         <v>61434</v>
       </c>
       <c r="B167" t="n">
-        <v>97854</v>
+        <v>23216</v>
       </c>
       <c r="C167" t="s">
         <v>1520</v>
@@ -17251,7 +17251,7 @@
         <v>61434</v>
       </c>
       <c r="B169" t="n">
-        <v>133474</v>
+        <v>164301</v>
       </c>
       <c r="C169" t="s">
         <v>1539</v>
@@ -17326,7 +17326,7 @@
         <v>61434</v>
       </c>
       <c r="B170" t="n">
-        <v>133475</v>
+        <v>164302</v>
       </c>
       <c r="C170" t="s">
         <v>1546</v>
@@ -17401,7 +17401,7 @@
         <v>61434</v>
       </c>
       <c r="B171" t="n">
-        <v>133476</v>
+        <v>164303</v>
       </c>
       <c r="C171" t="s">
         <v>1556</v>
@@ -17476,7 +17476,7 @@
         <v>61434</v>
       </c>
       <c r="B172" t="n">
-        <v>133477</v>
+        <v>164304</v>
       </c>
       <c r="C172" t="s">
         <v>1563</v>
@@ -17551,7 +17551,7 @@
         <v>61434</v>
       </c>
       <c r="B173" t="n">
-        <v>133478</v>
+        <v>164305</v>
       </c>
       <c r="C173" t="s">
         <v>1571</v>
@@ -17622,7 +17622,7 @@
         <v>61434</v>
       </c>
       <c r="B174" t="n">
-        <v>133479</v>
+        <v>164306</v>
       </c>
       <c r="C174" t="s">
         <v>1579</v>
@@ -17764,7 +17764,7 @@
         <v>61434</v>
       </c>
       <c r="B176" t="n">
-        <v>133480</v>
+        <v>164307</v>
       </c>
       <c r="C176" t="s">
         <v>1593</v>
@@ -17902,7 +17902,7 @@
         <v>61434</v>
       </c>
       <c r="B178" t="n">
-        <v>133481</v>
+        <v>164308</v>
       </c>
       <c r="C178" t="s">
         <v>1610</v>
@@ -17969,7 +17969,7 @@
         <v>61434</v>
       </c>
       <c r="B179" t="n">
-        <v>133466</v>
+        <v>133396</v>
       </c>
       <c r="C179" t="s">
         <v>1422</v>
@@ -18103,7 +18103,7 @@
         <v>61434</v>
       </c>
       <c r="B181" t="n">
-        <v>133482</v>
+        <v>164309</v>
       </c>
       <c r="C181" t="s">
         <v>1630</v>
